--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
@@ -139,13 +139,30 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thick">
+      <x:left style="none">
         <x:color rgb="FF000000"/>
       </x:left>
       <x:right style="none">
         <x:color rgb="FF000000"/>
       </x:right>
-      <x:top style="none">
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thick">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
@@ -165,7 +182,7 @@
       <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
-      <x:bottom style="thick">
+      <x:bottom style="thin">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -193,6 +210,23 @@
       <x:left style="none">
         <x:color rgb="FF000000"/>
       </x:left>
+      <x:right style="thick">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thick">
+        <x:color rgb="FF000000"/>
+      </x:left>
       <x:right style="none">
         <x:color rgb="FF000000"/>
       </x:right>
@@ -210,13 +244,13 @@
       <x:left style="none">
         <x:color rgb="FF000000"/>
       </x:left>
-      <x:right style="thick">
+      <x:right style="none">
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
-      <x:bottom style="thin">
+      <x:bottom style="thick">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -234,40 +268,6 @@
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thick">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -282,9 +282,6 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -294,31 +291,34 @@
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
@@ -327,43 +327,43 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -376,10 +376,6 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -392,31 +388,31 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -424,7 +420,11 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -432,35 +432,35 @@
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -468,19 +468,19 @@
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -790,7 +790,7 @@
     <x:col min="4" max="4" width="9.27" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.41" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="9.7" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.55" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="11.27" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="9.55" style="0" customWidth="1"/>
     <x:col min="9" max="16384" width="9.850625" style="15" customWidth="1"/>
   </x:cols>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
@@ -275,7 +275,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="30">
+  <x:cellStyleXfs count="29">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -321,9 +321,6 @@
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -367,7 +364,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="29">
+  <x:cellXfs count="28">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -426,10 +423,6 @@
     </x:xf>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
@@ -783,22 +776,20 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="9.850625" style="15" customWidth="1"/>
-    <x:col min="3" max="3" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.27" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.41" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.7" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.27" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="9.55" style="0" customWidth="1"/>
-    <x:col min="9" max="16384" width="9.850625" style="15" customWidth="1"/>
+    <x:col min="1" max="3" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.270624999999999" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.410625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.700625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="11.270625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="9.550625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="15" t="s"/>
-      <x:c r="B1" s="15" t="s"/>
-      <x:c r="C1" s="15" t="s"/>
+      <x:c r="A1" s="0" t="s"/>
+      <x:c r="B1" s="0" t="s"/>
+      <x:c r="C1" s="0" t="s"/>
       <x:c r="D1" s="0" t="s"/>
       <x:c r="E1" s="0" t="s"/>
       <x:c r="F1" s="0" t="s"/>
@@ -806,9 +797,9 @@
       <x:c r="H1" s="0" t="s"/>
     </x:row>
     <x:row r="2" spans="1:8">
-      <x:c r="A2" s="15" t="s"/>
-      <x:c r="B2" s="15" t="s"/>
-      <x:c r="C2" s="15" t="s"/>
+      <x:c r="A2" s="0" t="s"/>
+      <x:c r="B2" s="0" t="s"/>
+      <x:c r="C2" s="0" t="s"/>
       <x:c r="D2" s="0" t="s"/>
       <x:c r="E2" s="0" t="s"/>
       <x:c r="F2" s="0" t="s"/>
@@ -816,9 +807,9 @@
       <x:c r="H2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="15" t="s"/>
-      <x:c r="B3" s="15" t="s"/>
-      <x:c r="C3" s="15" t="s"/>
+      <x:c r="A3" s="0" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
       <x:c r="D3" s="0" t="s"/>
       <x:c r="E3" s="0" t="s"/>
       <x:c r="F3" s="0" t="s"/>
@@ -826,94 +817,94 @@
       <x:c r="H3" s="0" t="s"/>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="15" t="s"/>
-      <x:c r="B4" s="15" t="s"/>
-      <x:c r="C4" s="15" t="s"/>
+      <x:c r="A4" s="0" t="s"/>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
       <x:c r="D4" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E4" s="16" t="s"/>
-      <x:c r="F4" s="16" t="s"/>
-      <x:c r="G4" s="16" t="s"/>
-      <x:c r="H4" s="17" t="s"/>
+      <x:c r="E4" s="15" t="s"/>
+      <x:c r="F4" s="15" t="s"/>
+      <x:c r="G4" s="15" t="s"/>
+      <x:c r="H4" s="16" t="s"/>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="15" t="s"/>
-      <x:c r="B5" s="15" t="s"/>
-      <x:c r="C5" s="15" t="s"/>
-      <x:c r="D5" s="18" t="s">
+      <x:c r="A5" s="0" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="17" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E5" s="19" t="s">
+      <x:c r="E5" s="18" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="F5" s="19" t="s">
+      <x:c r="F5" s="18" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G5" s="19" t="s">
+      <x:c r="G5" s="18" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="H5" s="20" t="s">
+      <x:c r="H5" s="19" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="15" t="s"/>
-      <x:c r="B6" s="15" t="s"/>
-      <x:c r="C6" s="15" t="s"/>
-      <x:c r="D6" s="21" t="s">
+      <x:c r="A6" s="0" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="20" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E6" s="22" t="s">
+      <x:c r="E6" s="21" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="F6" s="22" t="b">
+      <x:c r="F6" s="21" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G6" s="23">
+      <x:c r="G6" s="22">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="H6" s="24" t="n">
+      <x:c r="H6" s="23" t="n">
         <x:v>2000</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="15" t="s"/>
-      <x:c r="B7" s="15" t="s"/>
-      <x:c r="C7" s="15" t="s"/>
-      <x:c r="D7" s="21" t="s">
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="20" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E7" s="22" t="s">
+      <x:c r="E7" s="21" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="F7" s="22" t="b">
+      <x:c r="F7" s="21" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G7" s="23">
+      <x:c r="G7" s="22">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="H7" s="24" t="n">
+      <x:c r="H7" s="23" t="n">
         <x:v>40000</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="15" t="s"/>
-      <x:c r="B8" s="15" t="s"/>
-      <x:c r="C8" s="15" t="s"/>
-      <x:c r="D8" s="25" t="s">
+      <x:c r="A8" s="0" t="s"/>
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="24" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E8" s="26" t="s">
+      <x:c r="E8" s="25" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F8" s="26" t="b">
+      <x:c r="F8" s="25" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G8" s="27">
+      <x:c r="G8" s="26">
         <x:v>8020</x:v>
       </x:c>
-      <x:c r="H8" s="28" t="n">
+      <x:c r="H8" s="27" t="n">
         <x:v>10000</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
@@ -275,7 +275,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="29">
+  <x:cellStyleXfs count="44">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -363,8 +363,53 @@
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="28">
+  <x:cellXfs count="29">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -474,6 +519,10 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -787,39 +836,39 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="0" t="s"/>
-      <x:c r="B1" s="0" t="s"/>
-      <x:c r="C1" s="0" t="s"/>
-      <x:c r="D1" s="0" t="s"/>
-      <x:c r="E1" s="0" t="s"/>
-      <x:c r="F1" s="0" t="s"/>
-      <x:c r="G1" s="0" t="s"/>
-      <x:c r="H1" s="0" t="s"/>
+      <x:c r="A1" s="28" t="s"/>
+      <x:c r="B1" s="28" t="s"/>
+      <x:c r="C1" s="28" t="s"/>
+      <x:c r="D1" s="28" t="s"/>
+      <x:c r="E1" s="28" t="s"/>
+      <x:c r="F1" s="28" t="s"/>
+      <x:c r="G1" s="28" t="s"/>
+      <x:c r="H1" s="28" t="s"/>
     </x:row>
     <x:row r="2" spans="1:8">
-      <x:c r="A2" s="0" t="s"/>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
-      <x:c r="E2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
-      <x:c r="G2" s="0" t="s"/>
-      <x:c r="H2" s="0" t="s"/>
+      <x:c r="A2" s="28" t="s"/>
+      <x:c r="B2" s="28" t="s"/>
+      <x:c r="C2" s="28" t="s"/>
+      <x:c r="D2" s="28" t="s"/>
+      <x:c r="E2" s="28" t="s"/>
+      <x:c r="F2" s="28" t="s"/>
+      <x:c r="G2" s="28" t="s"/>
+      <x:c r="H2" s="28" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="0" t="s"/>
-      <x:c r="B3" s="0" t="s"/>
-      <x:c r="C3" s="0" t="s"/>
-      <x:c r="D3" s="0" t="s"/>
-      <x:c r="E3" s="0" t="s"/>
-      <x:c r="F3" s="0" t="s"/>
-      <x:c r="G3" s="0" t="s"/>
-      <x:c r="H3" s="0" t="s"/>
+      <x:c r="A3" s="28" t="s"/>
+      <x:c r="B3" s="28" t="s"/>
+      <x:c r="C3" s="28" t="s"/>
+      <x:c r="D3" s="28" t="s"/>
+      <x:c r="E3" s="28" t="s"/>
+      <x:c r="F3" s="28" t="s"/>
+      <x:c r="G3" s="28" t="s"/>
+      <x:c r="H3" s="28" t="s"/>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="0" t="s"/>
-      <x:c r="B4" s="0" t="s"/>
-      <x:c r="C4" s="0" t="s"/>
+      <x:c r="A4" s="28" t="s"/>
+      <x:c r="B4" s="28" t="s"/>
+      <x:c r="C4" s="28" t="s"/>
       <x:c r="D4" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -829,9 +878,9 @@
       <x:c r="H4" s="16" t="s"/>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="0" t="s"/>
-      <x:c r="B5" s="0" t="s"/>
-      <x:c r="C5" s="0" t="s"/>
+      <x:c r="A5" s="28" t="s"/>
+      <x:c r="B5" s="28" t="s"/>
+      <x:c r="C5" s="28" t="s"/>
       <x:c r="D5" s="17" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -849,9 +898,9 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="0" t="s"/>
-      <x:c r="B6" s="0" t="s"/>
-      <x:c r="C6" s="0" t="s"/>
+      <x:c r="A6" s="28" t="s"/>
+      <x:c r="B6" s="28" t="s"/>
+      <x:c r="C6" s="28" t="s"/>
       <x:c r="D6" s="20" t="s">
         <x:v>6</x:v>
       </x:c>
@@ -869,9 +918,9 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="0" t="s"/>
-      <x:c r="B7" s="0" t="s"/>
-      <x:c r="C7" s="0" t="s"/>
+      <x:c r="A7" s="28" t="s"/>
+      <x:c r="B7" s="28" t="s"/>
+      <x:c r="C7" s="28" t="s"/>
       <x:c r="D7" s="20" t="s">
         <x:v>8</x:v>
       </x:c>
@@ -889,9 +938,9 @@
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="0" t="s"/>
-      <x:c r="B8" s="0" t="s"/>
-      <x:c r="C8" s="0" t="s"/>
+      <x:c r="A8" s="28" t="s"/>
+      <x:c r="B8" s="28" t="s"/>
+      <x:c r="C8" s="28" t="s"/>
       <x:c r="D8" s="24" t="s">
         <x:v>10</x:v>
       </x:c>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
@@ -275,7 +275,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="44">
+  <x:cellStyleXfs count="23">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -324,12 +324,6 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="4" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -339,42 +333,9 @@
     <x:xf numFmtId="0" fontId="1" fillId="4" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="4" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -384,32 +345,8 @@
     <x:xf numFmtId="0" fontId="1" fillId="4" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="29">
+  <x:cellXfs count="18">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -470,14 +407,6 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -488,42 +417,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -836,124 +729,111 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="28" t="s"/>
-      <x:c r="B1" s="28" t="s"/>
-      <x:c r="C1" s="28" t="s"/>
-      <x:c r="D1" s="28" t="s"/>
-      <x:c r="E1" s="28" t="s"/>
-      <x:c r="F1" s="28" t="s"/>
-      <x:c r="G1" s="28" t="s"/>
-      <x:c r="H1" s="28" t="s"/>
+      <x:c r="B1" s="0" t="s"/>
+      <x:c r="C1" s="0" t="s"/>
     </x:row>
     <x:row r="2" spans="1:8">
-      <x:c r="A2" s="28" t="s"/>
-      <x:c r="B2" s="28" t="s"/>
-      <x:c r="C2" s="28" t="s"/>
-      <x:c r="D2" s="28" t="s"/>
-      <x:c r="E2" s="28" t="s"/>
-      <x:c r="F2" s="28" t="s"/>
-      <x:c r="G2" s="28" t="s"/>
-      <x:c r="H2" s="28" t="s"/>
+      <x:c r="B2" s="0" t="s"/>
+      <x:c r="C2" s="0" t="s"/>
+      <x:c r="D2" s="0" t="s"/>
+      <x:c r="E2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s"/>
+      <x:c r="G2" s="0" t="s"/>
+      <x:c r="H2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="28" t="s"/>
-      <x:c r="B3" s="28" t="s"/>
-      <x:c r="C3" s="28" t="s"/>
-      <x:c r="D3" s="28" t="s"/>
-      <x:c r="E3" s="28" t="s"/>
-      <x:c r="F3" s="28" t="s"/>
-      <x:c r="G3" s="28" t="s"/>
-      <x:c r="H3" s="28" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s"/>
+      <x:c r="F3" s="0" t="s"/>
+      <x:c r="G3" s="0" t="s"/>
+      <x:c r="H3" s="0" t="s"/>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="28" t="s"/>
-      <x:c r="B4" s="28" t="s"/>
-      <x:c r="C4" s="28" t="s"/>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
       <x:c r="D4" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E4" s="15" t="s"/>
-      <x:c r="F4" s="15" t="s"/>
-      <x:c r="G4" s="15" t="s"/>
-      <x:c r="H4" s="16" t="s"/>
+      <x:c r="E4" s="2" t="s"/>
+      <x:c r="F4" s="2" t="s"/>
+      <x:c r="G4" s="2" t="s"/>
+      <x:c r="H4" s="3" t="s"/>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="28" t="s"/>
-      <x:c r="B5" s="28" t="s"/>
-      <x:c r="C5" s="28" t="s"/>
-      <x:c r="D5" s="17" t="s">
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="15" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E5" s="18" t="s">
+      <x:c r="E5" s="16" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="F5" s="18" t="s">
+      <x:c r="F5" s="16" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G5" s="18" t="s">
+      <x:c r="G5" s="16" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="H5" s="19" t="s">
+      <x:c r="H5" s="17" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="28" t="s"/>
-      <x:c r="B6" s="28" t="s"/>
-      <x:c r="C6" s="28" t="s"/>
-      <x:c r="D6" s="20" t="s">
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="7" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E6" s="21" t="s">
+      <x:c r="E6" s="8" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="F6" s="21" t="b">
+      <x:c r="F6" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G6" s="22">
+      <x:c r="G6" s="9">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="H6" s="23" t="n">
+      <x:c r="H6" s="10" t="n">
         <x:v>2000</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="28" t="s"/>
-      <x:c r="B7" s="28" t="s"/>
-      <x:c r="C7" s="28" t="s"/>
-      <x:c r="D7" s="20" t="s">
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="7" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E7" s="21" t="s">
+      <x:c r="E7" s="8" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="F7" s="21" t="b">
+      <x:c r="F7" s="8" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G7" s="22">
+      <x:c r="G7" s="9">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="H7" s="23" t="n">
+      <x:c r="H7" s="10" t="n">
         <x:v>40000</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="28" t="s"/>
-      <x:c r="B8" s="28" t="s"/>
-      <x:c r="C8" s="28" t="s"/>
-      <x:c r="D8" s="24" t="s">
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="11" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E8" s="25" t="s">
+      <x:c r="E8" s="12" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F8" s="25" t="b">
+      <x:c r="F8" s="12" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G8" s="26">
+      <x:c r="G8" s="13">
         <x:v>8020</x:v>
       </x:c>
-      <x:c r="H8" s="27" t="n">
+      <x:c r="H8" s="14" t="n">
         <x:v>10000</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
@@ -844,14 +844,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
@@ -721,11 +721,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="3" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.410625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.700625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.270625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="9.550625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="7.1090625" style="0" customWidth="1"/>
+    <x:col min="5" max="6" width="9.1090625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="11.1090625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="10.1090625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
@@ -721,10 +721,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="3" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="7.1090625" style="0" customWidth="1"/>
-    <x:col min="5" max="6" width="9.1090625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.1090625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="10.1090625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="7.085625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.10125" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.085625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="11.10125" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="9.10125" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
@@ -721,11 +721,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="3" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="7.085625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="9.10125" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.085625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.10125" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="9.10125" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.270624999999999" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.410625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.700625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="11.270625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="9.550625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
@@ -60,7 +60,7 @@
     <x:numFmt numFmtId="0" formatCode=""/>
     <x:numFmt numFmtId="1" formatCode="$ #,##0"/>
   </x:numFmts>
-  <x:fonts count="2">
+  <x:fonts count="4">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -70,6 +70,20 @@
     </x:font>
     <x:font>
       <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
@@ -730,7 +730,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:F6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
@@ -735,11 +735,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="3" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.410625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.700625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.270625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="9.550625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="7.980625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.000625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="8.580625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="10.140625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="8.280625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
@@ -290,146 +290,146 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="23">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="18">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
@@ -742,31 +742,10 @@
     <x:col min="8" max="8" width="8.280625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
-      <x:c r="B1" s="0" t="s"/>
-      <x:c r="C1" s="0" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
-      <x:c r="E2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
-      <x:c r="G2" s="0" t="s"/>
-      <x:c r="H2" s="0" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:8">
-      <x:c r="B3" s="0" t="s"/>
-      <x:c r="C3" s="0" t="s"/>
-      <x:c r="D3" s="0" t="s"/>
-      <x:c r="E3" s="0" t="s"/>
-      <x:c r="F3" s="0" t="s"/>
-      <x:c r="G3" s="0" t="s"/>
-      <x:c r="H3" s="0" t="s"/>
-    </x:row>
+    <x:row r="1" spans="1:8"/>
+    <x:row r="2" spans="1:8"/>
+    <x:row r="3" spans="1:8"/>
     <x:row r="4" spans="1:8">
-      <x:c r="B4" s="0" t="s"/>
-      <x:c r="C4" s="0" t="s"/>
       <x:c r="D4" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -776,8 +755,6 @@
       <x:c r="H4" s="3" t="s"/>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="B5" s="0" t="s"/>
-      <x:c r="C5" s="0" t="s"/>
       <x:c r="D5" s="15" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -795,8 +772,6 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="B6" s="0" t="s"/>
-      <x:c r="C6" s="0" t="s"/>
       <x:c r="D6" s="7" t="s">
         <x:v>6</x:v>
       </x:c>
@@ -814,8 +789,6 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="B7" s="0" t="s"/>
-      <x:c r="C7" s="0" t="s"/>
       <x:c r="D7" s="7" t="s">
         <x:v>8</x:v>
       </x:c>
@@ -833,8 +806,6 @@
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="B8" s="0" t="s"/>
-      <x:c r="C8" s="0" t="s"/>
       <x:c r="D8" s="11" t="s">
         <x:v>10</x:v>
       </x:c>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ShiftingRanges.xlsx
@@ -58,7 +58,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="1" formatCode="$ #,##0"/>
+    <x:numFmt numFmtId="165" formatCode="$ #,##0"/>
   </x:numFmts>
   <x:fonts count="4">
     <x:font>
@@ -320,7 +320,7 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -332,7 +332,7 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -401,7 +401,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -417,7 +417,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
